--- a/data files/Purchase Order/SAI LIFE.xlsx
+++ b/data files/Purchase Order/SAI LIFE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243C576-B105-4CB5-9C99-6CF9C9857880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5160" yWindow="1152" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>To,</t>
   </si>
@@ -204,11 +205,17 @@
   <si>
     <t>Bed Back Rest</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +448,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,7 +463,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -480,18 +486,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,64 +511,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,6 +564,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -597,7 +589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -627,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +665,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -739,7 +737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,30 +910,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.5">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6"/>
@@ -944,28 +942,28 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
@@ -976,8 +974,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="4"/>
@@ -988,16 +986,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4"/>
@@ -1006,12 +1004,12 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8"/>
@@ -1019,542 +1017,536 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="E15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="20" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="48" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="20" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>240</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="54" t="s">
+      <c r="D21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="47" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="20" t="s">
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="33" t="s">
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <v>63</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="54" t="s">
+      <c r="D26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
         <v>3</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="41"/>
-    </row>
-    <row r="29" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="47" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="42"/>
-    </row>
-    <row r="30" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="20" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>72</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="44"/>
-    </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="39"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>4</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>25</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+      <c r="D34" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>5</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>25</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="D36" s="41"/>
-    </row>
-    <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+      <c r="D35" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
         <v>6</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="51" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="33" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-    </row>
-    <row r="40" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
         <v>7</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="51" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-    </row>
-    <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-    </row>
-    <row r="43" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
         <v>8</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="C43" s="45"/>
+      <c r="D43" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
         <v>9</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="24"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="C44" s="45"/>
+      <c r="D44" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="21"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
         <v>10</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="19">
         <v>10</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+      <c r="D46" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
         <v>11</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>9</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="51" t="s">
+      <c r="D50" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>12</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="19">
         <v>8</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="51" t="s">
+      <c r="D51" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>13</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="51" t="s">
+      <c r="C53" s="19"/>
+      <c r="D53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
         <v>14</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="19">
         <v>10</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="51" t="s">
+      <c r="D55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
         <v>15</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="51" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
         <v>16</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="19">
         <v>10</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="51" t="s">
+      <c r="D57" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
         <v>17</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="51" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B59" s="44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
         <v>18</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="19">
         <v>1</v>
       </c>
-      <c r="D61" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="D61" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
         <v>19</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
+      <c r="C62" s="19"/>
+      <c r="D62" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
         <v>20</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="19">
         <v>3</v>
       </c>
-      <c r="D63" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28">
+      <c r="D63" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
         <v>21</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28">
-        <v>22</v>
-      </c>
-      <c r="B65" s="49" t="s">
+      <c r="D64" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
+        <v>22</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="D65" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1566,12 +1558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/SAI LIFE.xlsx
+++ b/data files/Purchase Order/SAI LIFE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243C576-B105-4CB5-9C99-6CF9C9857880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F197C-72E7-4BC3-AD61-39753FF466C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1152" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>To,</t>
   </si>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">   * Double Edge</t>
   </si>
   <si>
-    <t xml:space="preserve">   * Grey and Blue Colour</t>
-  </si>
-  <si>
     <t xml:space="preserve">   * Unprinted Box Packing</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>Wheel Chair-Black</t>
-  </si>
-  <si>
-    <t>Wheel Chair-Chrome</t>
   </si>
   <si>
     <t>Wheel Chair-Commode</t>
@@ -170,12 +164,6 @@
     </r>
   </si>
   <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Semi Fowler Bed With ABS Panel </t>
   </si>
   <si>
@@ -188,15 +176,6 @@
     <t>Ph.:  97193-04441</t>
   </si>
   <si>
-    <t>505-515</t>
-  </si>
-  <si>
-    <t>605-615</t>
-  </si>
-  <si>
-    <t>421-430</t>
-  </si>
-  <si>
     <t>Fogger Machine-SS</t>
   </si>
   <si>
@@ -210,6 +189,43 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Instrument Trolley Complete SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolving stool Complete SS </t>
+  </si>
+  <si>
+    <t>* 4 Leg, Heavy SS Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Grey and Dark Grey Colour</t>
+  </si>
+  <si>
+    <r>
+      <t>Semi Fowler Bed Iron Back n Foot-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH Wheel</t>
+    </r>
+  </si>
+  <si>
+    <t>Oxygen Flowmeter with Humidifier Bottel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streacher  Trolley </t>
+  </si>
+  <si>
+    <t>Streacher  Trolley  Matress</t>
   </si>
 </sst>
 </file>
@@ -911,20 +927,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -932,7 +948,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
@@ -942,7 +958,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
@@ -954,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -962,7 +978,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
@@ -971,12 +987,12 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -986,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -994,7 +1010,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
@@ -1004,11 +1020,9 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -1017,11 +1031,9 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
@@ -1030,19 +1042,19 @@
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>2</v>
       </c>
@@ -1050,12 +1062,12 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>9</v>
       </c>
@@ -1069,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -1083,7 +1095,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>1</v>
       </c>
@@ -1093,7 +1105,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
@@ -1101,452 +1113,497 @@
       <c r="C18" s="19"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="43" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="19">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="29"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>2</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="34"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="19">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="29"/>
       <c r="C27" s="34"/>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>3</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="19">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="39"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>4</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="19">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
       <c r="D34" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>5</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="19">
         <v>25</v>
       </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="36"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="C37" s="19">
+        <v>2</v>
+      </c>
       <c r="D37" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>7</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="41"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>8</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>9</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
       <c r="C45" s="45"/>
       <c r="D45" s="21"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>10</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="19">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C46" s="19"/>
       <c r="D46" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
-        <v>28</v>
-      </c>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
       <c r="C48" s="40"/>
       <c r="D48" s="41"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
         <v>11</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B52" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>12</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="C50" s="19">
-        <v>9</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
-        <v>12</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19">
-        <v>8</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
-        <v>13</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
+        <v>13</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
         <v>14</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="19">
-        <v>10</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
-        <v>15</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
-        <v>16</v>
-      </c>
       <c r="B57" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" s="19">
         <v>10</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>17</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>18</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="19">
+        <v>3</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
+        <v>19</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>20</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>21</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B59" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
-        <v>18</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="19">
-        <v>1</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
-        <v>19</v>
-      </c>
-      <c r="B62" s="29" t="s">
+      <c r="B66" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
-        <v>20</v>
-      </c>
-      <c r="B63" s="29" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>23</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>24</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="19">
-        <v>3</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
-        <v>21</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="25">
-        <v>22</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <v>25</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>26</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="19">
+        <v>2</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>27</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="19">
+        <v>2</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1563,7 +1620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
